--- a/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_5/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_5/out_of_sample/additive/ranking_test4/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.24</v>
+        <v>0.664</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.226</v>
+        <v>15.221</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.382</v>
+        <v>0.791</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.996</v>
+        <v>12.221</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.403</v>
+        <v>0.921</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.159</v>
+        <v>7.724</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>15.66409672718108</v>
+        <v>12.28035115422995</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>27.48050386034221</v>
+        <v>15.32778010632796</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>31.48799688732165</v>
+        <v>21.71922571773064</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>12.8594815073098</v>
+        <v>3.570125961440624</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>26.79139563885625</v>
+        <v>15.37860103937768</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>31.19885958589932</v>
+        <v>17.5549461346977</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>16.91249108728957</v>
+        <v>4.656583688886144</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>32.08805083000897</v>
+        <v>25.78639526335672</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>36.64417897565635</v>
+        <v>27.17106504923794</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>34.06961075762322</v>
+        <v>15.11527821442644</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>38.66167695430681</v>
+        <v>21.93850676131805</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>40.80197694142178</v>
+        <v>24.9879223894761</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>23.18229152001999</v>
+        <v>14.38483984291457</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>35.61584825649961</v>
+        <v>9.579735105630647</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>39.58071218594337</v>
+        <v>23.06706498824107</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>19.37526138243799</v>
+        <v>13.20516378060569</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>31.30430780062294</v>
+        <v>25.46706099570173</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>35.45465028294961</v>
+        <v>32.63524683827978</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>16.1694561554023</v>
+        <v>4.828663067124182</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>30.09776906753049</v>
+        <v>11.36790152127494</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>34.69922997691776</v>
+        <v>16.96766588783984</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>20.34687184938621</v>
+        <v>1.803658322801368</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>35.60048309549312</v>
+        <v>20.85885956917565</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>15.66438977288641</v>
+        <v>15.92069773518517</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>27.48080453341021</v>
+        <v>21.85686739387666</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>31.48829870483067</v>
+        <v>24.51646293561237</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>12.85978565025445</v>
+        <v>1.649665197369416</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>26.79170885350894</v>
+        <v>29.97662998990037</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>31.19917450042863</v>
+        <v>31.54745057305374</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>16.91279851563679</v>
+        <v>3.499327924649606</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>32.08836743352727</v>
+        <v>41.93416017690723</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>36.64449697396779</v>
+        <v>41.95564840705518</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>34.0699308667783</v>
+        <v>40.93697267471674</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>38.66199826303395</v>
+        <v>43.79232395445197</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>40.80229917027415</v>
+        <v>45.86073316173557</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>23.18260341357216</v>
+        <v>21.76227215571868</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>35.61616857246949</v>
+        <v>37.78988472191435</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>39.58103314424115</v>
+        <v>44.690557428266</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>19.37555485660393</v>
+        <v>16.69478591935621</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>31.30460890911217</v>
+        <v>34.80048512091648</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>35.45495267325065</v>
+        <v>38.4760346807449</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>16.16976062719272</v>
+        <v>6.13515150775271</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>30.09808257776661</v>
+        <v>34.05639410194013</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>34.69954533335212</v>
+        <v>40.19563641559674</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>35.60080012434413</v>
+        <v>47.60922447904215</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>15.66448520689154</v>
+        <v>8.389550012169821</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>27.48089876313833</v>
+        <v>16.66068054542973</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>31.48839195988105</v>
+        <v>21.03729190158549</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>12.8598856227075</v>
+        <v>0.4996292677305973</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>26.79180736157697</v>
+        <v>27.97119205530191</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>31.19927211675113</v>
+        <v>31.18376059702962</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>16.91289852846204</v>
+        <v>3.408767274306058</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>32.08846567607235</v>
+        <v>41.08584740255404</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>36.6445941149969</v>
+        <v>44.83061306314247</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>34.07002966403331</v>
+        <v>38.50988832848196</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>38.6620960186621</v>
+        <v>40.49273286798683</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>40.80239652211709</v>
+        <v>47.28329186867103</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>23.18270273423948</v>
+        <v>11.62799391528051</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>35.61626675954825</v>
+        <v>31.91751041857287</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>39.58113020397545</v>
+        <v>40.22725355883017</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>19.37564970739973</v>
+        <v>10.56606954883358</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>31.30470251519906</v>
+        <v>31.07996538699999</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>35.45504532071216</v>
+        <v>37.03316955081161</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>16.16986011434873</v>
+        <v>4.511653292408482</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>30.09818057830323</v>
+        <v>30.5471548157866</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>34.69964244234401</v>
+        <v>40.86879863709703</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>20.3472792135935</v>
+        <v>4.737499004333074</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>35.60089784801316</v>
+        <v>45.95880065383571</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>15.66435702410954</v>
+        <v>4.400263889626274</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>27.48077317581479</v>
+        <v>14.33049898894831</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>31.48826749111385</v>
+        <v>20.84011960533479</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>12.85974803279642</v>
+        <v>0.8466146827756234</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>26.79167312000754</v>
+        <v>27.41587394722185</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>31.19913884180043</v>
+        <v>32.58118795460885</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>16.91276244892159</v>
+        <v>0.1835047355766051</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>32.08833346551716</v>
+        <v>38.43708724033385</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>36.64446320394647</v>
+        <v>43.86892298763118</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>34.06989726378638</v>
+        <v>29.92483872578413</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>38.66196584664888</v>
+        <v>32.09933876739356</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>40.80226673108913</v>
+        <v>40.51349248336888</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>23.18256860095359</v>
+        <v>11.04188653137311</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>35.61613484136574</v>
+        <v>30.71747066676951</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>39.58099978049707</v>
+        <v>42.50338718135916</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>19.37552366370978</v>
+        <v>7.599523502648765</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>31.30457913166942</v>
+        <v>27.57974685085892</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>35.4549230736535</v>
+        <v>36.31830824424654</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>16.16972455776487</v>
+        <v>4.740122736553531</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>30.0980483902806</v>
+        <v>27.58243201983714</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>34.6995112575096</v>
+        <v>39.8741066523362</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>20.3471451810526</v>
+        <v>0.9639739341811264</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>35.60076773819571</v>
+        <v>38.88339256315874</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>40.32351332918456</v>
+        <v>31.45579130495304</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>37.70761625027725</v>
+        <v>18.02157221373795</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>42.42928083179551</v>
+        <v>33.74786498645778</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>44.66615059451523</v>
+        <v>42.92436478904631</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>26.78402149159115</v>
+        <v>7.466443519827976</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>39.5062553478172</v>
+        <v>19.49472511968344</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>43.46006619071788</v>
+        <v>27.94388481283505</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>26.20153624638803</v>
+        <v>11.74541247797055</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>38.45075492784014</v>
+        <v>20.74365717364051</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>42.61793635155067</v>
+        <v>33.06153968937579</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>23.57763545992389</v>
+        <v>0.8149591834607008</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>37.89313084160146</v>
+        <v>10.56558506521375</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>42.45838587222728</v>
+        <v>17.17546653755184</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>27.82511206664693</v>
+        <v>-1.143382205187038</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>43.42857717412909</v>
+        <v>23.05636793267516</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>48.1786356281185</v>
+        <v>38.63291747116173</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>45.9473741318283</v>
+        <v>25.64625749294237</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>50.70883223573602</v>
+        <v>43.41347553520791</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>52.90053554050081</v>
+        <v>55.70613637497161</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>34.7889017127814</v>
+        <v>4.301041812351286</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>47.661535374143</v>
+        <v>22.25371207303959</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>51.61239861352574</v>
+        <v>35.80599306832147</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>40.32383190280463</v>
+        <v>58.23956277957052</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>37.70793665499377</v>
+        <v>52.6068840438204</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>42.42960245534888</v>
+        <v>61.68726998722457</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>44.66647317177741</v>
+        <v>68.49494654311763</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>26.78433377759843</v>
+        <v>21.55210383294281</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>39.50657613282392</v>
+        <v>60.1564692876664</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>43.46038768768918</v>
+        <v>63.95357213588662</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>26.20183864042895</v>
+        <v>22.78784643186441</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>38.45106513273334</v>
+        <v>38.11967769266209</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>42.61824774058025</v>
+        <v>44.94411932687626</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>23.57794909736023</v>
+        <v>7.98334604824413</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>37.8934537086508</v>
+        <v>41.88139458357554</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>42.45871049276487</v>
+        <v>47.31494284308891</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>27.82542918417885</v>
+        <v>8.538279791068931</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>43.42890367658994</v>
+        <v>58.59888143354749</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>48.17896355151044</v>
+        <v>69.51799955992885</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>45.94770419357633</v>
+        <v>72.81243924427469</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>50.7091635235637</v>
+        <v>81.14248730796004</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>52.90086772907027</v>
+        <v>89.31620926245165</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>34.78922354315839</v>
+        <v>28.62387582897253</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>47.66186575832513</v>
+        <v>75.60034542234067</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>51.61272965571943</v>
+        <v>80.35524013949717</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>40.32392853659351</v>
+        <v>61.60950029582168</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>37.70803488612613</v>
+        <v>45.57784638678203</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>42.42969960823226</v>
+        <v>53.9005596396818</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>44.66656990287305</v>
+        <v>66.54962815925288</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>26.7844325773795</v>
+        <v>10.76172248016354</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>39.50667372488542</v>
+        <v>54.72340761040411</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>26.20193306383873</v>
+        <v>15.50279960918226</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>38.45115825454997</v>
+        <v>34.79485510266332</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>42.6183398540699</v>
+        <v>43.19435013391049</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>23.57804802797784</v>
+        <v>5.932273158243447</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>37.89355108533772</v>
+        <v>40.08633374026948</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>42.45880694811694</v>
+        <v>48.44213882571097</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>27.8255281562899</v>
+        <v>7.754992091678616</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>43.42900079515162</v>
+        <v>58.78328940548349</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>48.17905951872723</v>
+        <v>73.18558959738775</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>45.94780170480475</v>
+        <v>69.87621692962671</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>50.70925993943026</v>
+        <v>77.59901753841351</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>52.90096372211536</v>
+        <v>89.90641465675216</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>34.78932167465121</v>
+        <v>17.97120339217133</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>47.66196265332827</v>
+        <v>72.42354657908527</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>51.61282543304913</v>
+        <v>79.35574693804554</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>40.32379974350106</v>
+        <v>56.5355331558535</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>37.70790481541183</v>
+        <v>29.10975776592511</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>42.42957184094972</v>
+        <v>38.64724841727357</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>44.66644255668865</v>
+        <v>55.19550765964109</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>26.78430061918254</v>
+        <v>7.21189160068883</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>39.50654413619642</v>
+        <v>47.66389362970548</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>43.46035604843037</v>
+        <v>56.71005257461624</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>26.20180250646876</v>
+        <v>11.86764030511978</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>38.45103041965221</v>
+        <v>32.78413295993195</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>42.61821322423074</v>
+        <v>45.21525184829054</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>23.57790815203454</v>
+        <v>6.637024279461343</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>37.89341466858966</v>
+        <v>38.37506818091538</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>42.45867157287773</v>
+        <v>49.83868466021704</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>27.82538974515604</v>
+        <v>4.510361749921856</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>43.42886637059102</v>
+        <v>54.11483259585</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>48.17892650789302</v>
+        <v>72.06166962277703</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>45.94766741087511</v>
+        <v>57.1316877879508</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>50.70912796296124</v>
+        <v>69.06403609032873</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>52.90083217461168</v>
+        <v>86.43595030774247</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>34.78918551816698</v>
+        <v>13.52771066138791</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>47.66182888760709</v>
+        <v>65.88671327674271</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>51.61269315546863</v>
+        <v>79.21775434956592</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>13.76978437424326</v>
+        <v>19.43055522169863</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>25.74060314340772</v>
+        <v>35.24803517586898</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>29.66844715976893</v>
+        <v>42.18687358759806</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>10.89543427374335</v>
+        <v>8.108401470789659</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>25.02245389216867</v>
+        <v>35.72534067599892</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>29.32096431008334</v>
+        <v>37.54816062791335</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>15.02489422476865</v>
+        <v>13.43734158521301</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>30.37322999473651</v>
+        <v>57.95873600981099</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>34.84546049892647</v>
+        <v>56.67336269586292</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>32.24382769647225</v>
+        <v>40.45945120826815</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>36.82784803377659</v>
+        <v>51.70513928027191</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>38.92384800257464</v>
+        <v>51.48860222003356</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>21.18327149860426</v>
+        <v>20.82918670536395</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>33.69713140087756</v>
+        <v>31.14405548089175</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>37.60633064928184</v>
+        <v>44.31374403558308</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>17.57916026166275</v>
+        <v>14.12236321188902</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>29.65230550112355</v>
+        <v>36.33379605390311</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>33.72489578159051</v>
+        <v>41.02279799148627</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>14.31785846377284</v>
+        <v>-0.9270312030243417</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>28.43329656627367</v>
+        <v>18.73197982821668</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>32.92868478984423</v>
+        <v>22.22885961988433</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>18.56892832318686</v>
+        <v>1.264150084606456</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>33.98629807761993</v>
+        <v>40.95981915428774</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>13.77007468012047</v>
+        <v>23.83479318414652</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>25.74090111139503</v>
+        <v>42.52742116635375</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>29.66874622278443</v>
+        <v>45.47110735544908</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>10.89573570798954</v>
+        <v>7.537608147259903</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>25.02276447856525</v>
+        <v>51.63167969829055</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>29.3212765279925</v>
+        <v>52.00100535433364</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>15.02519886273561</v>
+        <v>13.02939374082445</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>30.37354384359408</v>
+        <v>74.7142233878125</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>34.84577568352969</v>
+        <v>71.04556179448153</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>32.24414501514538</v>
+        <v>67.38122308066926</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>36.8281665345317</v>
+        <v>74.76535238634338</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>38.9241674050534</v>
+        <v>73.04462579609131</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>21.1835805450213</v>
+        <v>29.12763758222098</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>33.69744888854574</v>
+        <v>60.12945867918137</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>37.60664874285899</v>
+        <v>66.11858034017251</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>17.57945108709269</v>
+        <v>17.86334836883248</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>29.6526039921993</v>
+        <v>45.8014961565799</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>33.72519550655058</v>
+        <v>46.78911668352828</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>14.31816031537465</v>
+        <v>1.095095973942534</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>28.43360753462404</v>
+        <v>41.9740220257018</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>32.92899753761925</v>
+        <v>45.14003271707492</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>18.56923346252368</v>
+        <v>4.618754433513288</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>33.98661243687867</v>
+        <v>67.58742115811728</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>13.77016951686102</v>
+        <v>14.92901558052944</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>25.74099470489789</v>
+        <v>35.61737883278951</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>29.66883885043123</v>
+        <v>40.31731648391892</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>10.89583513631038</v>
+        <v>5.905722548091148</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>25.02286240655163</v>
+        <v>48.89054171985526</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>29.32137357514488</v>
+        <v>50.56522100620327</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>15.02529827864624</v>
+        <v>12.07368646568602</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>30.37364144387418</v>
+        <v>72.50199706004514</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>34.84587219019475</v>
+        <v>72.40149455466303</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>32.24424317951477</v>
+        <v>64.67163399300085</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>36.82826365015913</v>
+        <v>71.22350592429206</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>38.92426413076501</v>
+        <v>73.65690643778584</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>21.18367926848708</v>
+        <v>18.02305007223629</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>33.69754645333174</v>
+        <v>53.24518466875509</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>37.60674519244483</v>
+        <v>60.2486866215371</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>17.57954535877469</v>
+        <v>11.31897179434344</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>29.65269698198325</v>
+        <v>41.34797603275837</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>33.72528754687708</v>
+        <v>44.64572065591352</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>14.31825927020665</v>
+        <v>-0.1311964205912659</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>28.43370496826202</v>
+        <v>38.63942664033928</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>32.92909409100422</v>
+        <v>45.5926359854474</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>18.56933240182114</v>
+        <v>4.405944012430609</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>33.98670953303622</v>
+        <v>65.51297186117819</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>13.7700423061897</v>
+        <v>11.20767029766347</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>25.74087016493263</v>
+        <v>33.72629663353558</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>29.66871541498396</v>
+        <v>40.91793883185693</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>10.8956984406265</v>
+        <v>6.669641158652098</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>25.02272913589129</v>
+        <v>49.09531628439171</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>29.32124124134812</v>
+        <v>53.1450417837768</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>15.02516320941836</v>
+        <v>9.515315287755641</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>30.37351033630699</v>
+        <v>70.62325336901384</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>34.84574237025717</v>
+        <v>72.81131855598326</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>32.24411179487871</v>
+        <v>56.84503309755331</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>36.82813449984461</v>
+        <v>63.49266442729768</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>38.92413535811716</v>
+        <v>67.4972785729266</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>21.1835461043539</v>
+        <v>17.62447674883629</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>33.69741552782065</v>
+        <v>52.86601044912459</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>37.60661576261556</v>
+        <v>63.39703529515998</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>17.57942027733949</v>
+        <v>8.161701573781045</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>29.65257463205413</v>
+        <v>37.90747042883478</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>33.72516631914294</v>
+        <v>44.26498428719194</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>14.3181246110218</v>
+        <v>0.07291340945971569</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>28.43357375046698</v>
+        <v>36.08238758283261</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>32.92896384782953</v>
+        <v>45.35521390842479</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>18.56919938011583</v>
+        <v>0.8445819519996007</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>33.98658052333883</v>
+        <v>58.83001540191182</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>38.62787386645613</v>
+        <v>46.31142671480893</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>35.99796196052224</v>
+        <v>32.80929521205888</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>40.70848962511651</v>
+        <v>51.63739541617659</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>42.89725674735392</v>
+        <v>55.18915969703031</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>24.91059486953087</v>
+        <v>9.36052322210395</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>37.70682036087928</v>
+        <v>34.42049948928909</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>41.60941049695163</v>
+        <v>42.05181744807348</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>24.63850355588811</v>
+        <v>10.24122466352617</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>37.04029149737019</v>
+        <v>30.85250584169978</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>41.12554259763517</v>
+        <v>39.73850176165888</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>21.93611759184086</v>
+        <v>-5.87981033348558</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>36.44715986644413</v>
+        <v>17.51046049199419</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>40.89833460442351</v>
+        <v>21.91260963369405</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>26.27059429597317</v>
+        <v>-4.039077211494657</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>42.04421654894414</v>
+        <v>42.07550902239026</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>46.70783925348589</v>
+        <v>50.79795272210603</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>44.45976230167473</v>
+        <v>38.07520280694143</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>49.20983780809587</v>
+        <v>58.18068530318919</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>51.35979620460581</v>
+        <v>64.06082114323692</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>33.13757881331684</v>
+        <v>3.127468721663831</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>46.0917176436992</v>
+        <v>35.48765531949891</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>49.98644352300443</v>
+        <v>47.35062961300366</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>38.62818971337082</v>
+        <v>71.9553141450277</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>35.99827966385745</v>
+        <v>67.83639209525029</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>40.70880852990465</v>
+        <v>80.15405457128554</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>42.8975765872485</v>
+        <v>80.85815909191228</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>24.91090440025949</v>
+        <v>23.7548276648721</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>37.70713840804434</v>
+        <v>75.1183345934727</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>41.60972922010244</v>
+        <v>77.55327346434672</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>24.63880342227363</v>
+        <v>19.07793729354177</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>37.04059921257037</v>
+        <v>45.87033802349271</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>41.12585144627365</v>
+        <v>48.99664205125924</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>21.93642873322452</v>
+        <v>-0.3738989204318841</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>36.44748032171593</v>
+        <v>47.02445652894517</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>40.89865674114811</v>
+        <v>49.26171721297737</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>26.27090884058595</v>
+        <v>3.345125951287002</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>42.04454051748196</v>
+        <v>74.98002890331233</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>46.70816458188547</v>
+        <v>78.01025261005768</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>44.46008979655973</v>
+        <v>82.95229412270569</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>49.21016651013907</v>
+        <v>93.79140718780249</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>51.36012578859717</v>
+        <v>95.09593469642971</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>33.13789802200257</v>
+        <v>25.24028095834984</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>46.09204542747746</v>
+        <v>86.33906048938974</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>49.98677192747023</v>
+        <v>88.82054631296862</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>38.62828572783465</v>
+        <v>74.73349826707062</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>35.99837727453576</v>
+        <v>61.44121220479866</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>40.708905055875</v>
+        <v>73.10965063722765</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>42.89767270668096</v>
+        <v>79.05083691343233</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>24.91100261307663</v>
+        <v>12.84802325557831</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>37.70723538963786</v>
+        <v>69.55268345997914</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>41.60982511659628</v>
+        <v>73.94037553418266</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>24.63889720658906</v>
+        <v>10.98136758200485</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>37.04069165849447</v>
+        <v>41.4045430409476</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>41.12594289283838</v>
+        <v>46.09067696256704</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>21.9365270763254</v>
+        <v>-2.376967641347449</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>36.44757707610631</v>
+        <v>45.03000519039489</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>40.89875258572461</v>
+        <v>49.78118092282153</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>26.27100717040608</v>
+        <v>2.261552754661238</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>42.0446369508313</v>
+        <v>74.37093644818603</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>46.7082598721254</v>
+        <v>80.68381069422111</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>44.46018663213665</v>
+        <v>80.24482276048602</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>49.21026224384208</v>
+        <v>90.57361752644678</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>51.36022111238985</v>
+        <v>95.41226453057089</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>33.13799551090051</v>
+        <v>14.10310124827834</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>46.09214165578007</v>
+        <v>82.68740827301463</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>49.98686705026553</v>
+        <v>86.91330557360061</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>38.62815802279574</v>
+        <v>70.61086592716887</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>35.99824822613057</v>
+        <v>45.3645868467745</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>40.70877831388622</v>
+        <v>58.15162441398002</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>42.8975463809254</v>
+        <v>67.80568413847402</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>24.91087163408269</v>
+        <v>8.994763511301414</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>37.70710680124959</v>
+        <v>62.86051646036486</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>41.60969798476876</v>
+        <v>70.23954101883118</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>24.638767675352</v>
+        <v>8.191001901804839</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>37.04056492002482</v>
+        <v>40.52599719668513</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>41.12581734421398</v>
+        <v>49.48509485017996</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>21.93638814486596</v>
+        <v>-0.5946202812836532</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>36.44744167685552</v>
+        <v>44.81829518416109</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>40.89861819646926</v>
+        <v>53.04197773611062</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>26.27086982262593</v>
+        <v>0.3105872500051419</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>42.04450367667916</v>
+        <v>71.2005723314328</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>46.70812799884293</v>
+        <v>81.59055387291164</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>44.46005340876472</v>
+        <v>69.16192440605613</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>49.21013134268435</v>
+        <v>83.60926353590247</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>51.3600906382994</v>
+        <v>93.26204803298148</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>33.13786038377431</v>
+        <v>10.57743140886924</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>46.09200894026822</v>
+        <v>77.72611315541477</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>49.98673582390696</v>
+        <v>88.43635501226026</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>15.2331671035322</v>
+        <v>13.92069674380758</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>27.15589492938913</v>
+        <v>16.31899703081174</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>31.20444163268918</v>
+        <v>21.64913065934334</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>12.37369169579889</v>
+        <v>4.389152386308353</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>26.42832456028503</v>
+        <v>13.42548477768682</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>30.88403355256893</v>
+        <v>15.27740887818706</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>16.48122798736672</v>
+        <v>7.679255264620508</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>31.79784730504644</v>
+        <v>23.20580659355204</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>36.40144887562362</v>
+        <v>25.37848464487803</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>33.7706887690536</v>
+        <v>15.24429063720152</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>38.39648692448242</v>
+        <v>22.54219022994616</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>40.56080944001331</v>
+        <v>25.10256781867199</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>22.74564996582026</v>
+        <v>15.60196774482097</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>35.30002937051312</v>
+        <v>9.980132633583537</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>39.3080268629633</v>
+        <v>23.51948910835068</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>18.93737247051415</v>
+        <v>11.11528708659671</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>30.96931507237871</v>
+        <v>22.39436419119752</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>35.16628720678004</v>
+        <v>29.92248070484791</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>15.6780806127737</v>
+        <v>2.153705326412364</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>29.72411876429592</v>
+        <v>5.524851150510358</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>34.38032207592899</v>
+        <v>12.25828038637155</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>19.90790408685899</v>
+        <v>0.9834392109547139</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>35.2989474033073</v>
+        <v>14.17077542613933</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>15.23346372582188</v>
+        <v>17.12271856985478</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>27.15619925694988</v>
+        <v>22.26110821712149</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>31.2047471227318</v>
+        <v>24.21620350158508</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>12.37399958391192</v>
+        <v>2.368744070491857</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>26.42864161831607</v>
+        <v>27.69935299286453</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>30.88435233686198</v>
+        <v>29.50731197077221</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>16.48153919036059</v>
+        <v>6.2997210754462</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>31.79816777925634</v>
+        <v>38.82130620719923</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>36.4017707647746</v>
+        <v>39.96440184196743</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>33.77101279160656</v>
+        <v>40.43459892825251</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>38.39681215400472</v>
+        <v>44.07368715206616</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>40.56113560445529</v>
+        <v>45.67604097121949</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>22.74596566467881</v>
+        <v>22.53815457720191</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>35.3003535861106</v>
+        <v>37.58059439781223</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>39.3083517327578</v>
+        <v>44.82778142142709</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>18.93766951143706</v>
+        <v>14.61902357279052</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>30.9696198239404</v>
+        <v>31.58814748577871</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>35.16659326155035</v>
+        <v>36.05045254629422</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>15.6783888192223</v>
+        <v>3.815113077857632</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>29.72443610511015</v>
+        <v>28.32727119959608</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>34.38064129324891</v>
+        <v>36.22595860594592</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>19.90821569223832</v>
+        <v>4.440431914870146</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>35.29926829055962</v>
+        <v>40.84150408218022</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>15.23356047373545</v>
+        <v>9.13546857955771</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>27.1562947924538</v>
+        <v>16.36309477936248</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>31.20484167533812</v>
+        <v>20.18122678428762</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>12.3741009457736</v>
+        <v>0.7570929756943769</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>26.42874150921119</v>
+        <v>24.94048427253236</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>30.88445132926682</v>
+        <v>28.64585463765539</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>16.48164058904053</v>
+        <v>5.711778697358795</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>31.79826739469539</v>
+        <v>37.19677630564746</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>36.40186926850441</v>
+        <v>42.24860632172516</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>33.77111297352148</v>
+        <v>37.33454267007158</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>38.39691128578241</v>
+        <v>40.12110743828359</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>40.56123433007983</v>
+        <v>46.40854154870905</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>22.74606637444577</v>
+        <v>11.94048299047631</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>35.3004531542425</v>
+        <v>30.88663222373043</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>39.30845016412201</v>
+        <v>39.58976028464713</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>18.93776568054135</v>
+        <v>7.984760095358411</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>30.96971474057607</v>
+        <v>27.09517387948122</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>35.16668721100982</v>
+        <v>34.00853524172672</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>15.67848969946244</v>
+        <v>1.6750185049994</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>29.72453549261691</v>
+        <v>23.97420606815894</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>34.38073978214795</v>
+        <v>36.34193433701881</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>19.9083166054576</v>
+        <v>3.620960859637648</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>35.29936739195956</v>
+        <v>38.32834235254819</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>15.2334307582279</v>
+        <v>4.516117062708986</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>27.15616769324362</v>
+        <v>13.27655917754555</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>31.20471570082607</v>
+        <v>19.00337112827924</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>12.37396168787363</v>
+        <v>0.2367691520122435</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>26.42860562194348</v>
+        <v>23.33918817119124</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>30.88431641073443</v>
+        <v>28.68740937353229</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>16.48150287466609</v>
+        <v>1.571250576777061</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>31.79813358350386</v>
+        <v>33.54935290359987</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>36.40173676419216</v>
+        <v>40.15018307648933</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>33.77097894545268</v>
+        <v>27.90365348144036</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>38.39677950604391</v>
+        <v>30.63103452148002</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>40.56110293227206</v>
+        <v>38.4711581402764</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>22.7459305976065</v>
+        <v>10.47768978740174</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>35.30031960575944</v>
+        <v>28.67952330451229</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>39.30831812331488</v>
+        <v>40.64975733381735</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>18.93763810345547</v>
+        <v>4.324708245228464</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>30.96958984339479</v>
+        <v>22.74873289848117</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>35.1665634579396</v>
+        <v>32.19782828262041</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>15.67835247707452</v>
+        <v>0.9968913830772408</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>29.7244016593629</v>
+        <v>19.91928721581519</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>34.38060695602987</v>
+        <v>33.91751163516471</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>19.90818093883751</v>
+        <v>-1.116077459964401</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>35.29923568119932</v>
+        <v>30.19677841104982</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>40.07552247057949</v>
+        <v>26.68119589185775</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>37.4012163279938</v>
+        <v>13.33605439924798</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>42.15722840569589</v>
+        <v>28.93033095348466</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>44.41968954255034</v>
+        <v>37.74056525090026</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>26.34102079339381</v>
+        <v>4.28287476514663</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>39.18658199348134</v>
+        <v>14.02779572319383</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>43.18581757631945</v>
+        <v>23.53590436546477</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>25.95084590801578</v>
+        <v>10.86492020035604</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>38.31367344812062</v>
+        <v>19.47068825826457</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>42.52419047479903</v>
+        <v>31.4702202204808</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>23.27420829120653</v>
+        <v>-1.49831391798557</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>37.7199622104188</v>
+        <v>6.092507416401929</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>42.33547174323678</v>
+        <v>13.5679572603953</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>27.57956555578525</v>
+        <v>-0.8189698055182362</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>43.33192477506004</v>
+        <v>18.7600633419851</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>48.13178096576053</v>
+        <v>35.17991630761745</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>45.85135522686937</v>
+        <v>22.31831329084036</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>50.64698829586481</v>
+        <v>39.63271461378014</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>52.8641329206045</v>
+        <v>52.01802515210244</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>34.55208212995846</v>
+        <v>2.896955517791412</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>47.55251592241287</v>
+        <v>18.56245192005539</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>51.54700319544653</v>
+        <v>33.38577197060792</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>40.07584492645777</v>
+        <v>53.78430764196162</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>37.40154063277323</v>
+        <v>47.74268908618978</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>42.15755393728559</v>
+        <v>57.01627568125426</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>44.42001604311601</v>
+        <v>63.48742148149498</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>26.3413368734142</v>
+        <v>18.36523691343234</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>39.18690666720535</v>
+        <v>54.52396758675206</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>43.18614297564115</v>
+        <v>59.73737779912665</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>25.95115205937615</v>
+        <v>22.4544585575066</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>38.31398749178948</v>
+        <v>37.22690632918804</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>42.52450572082493</v>
+        <v>44.14064686184904</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>23.27452585679593</v>
+        <v>6.523265953452153</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>37.72028910689293</v>
+        <v>38.04870134071012</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>42.335800419789</v>
+        <v>44.93760965816483</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>27.57988663514781</v>
+        <v>9.670352590258858</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>43.33225533927758</v>
+        <v>54.77906988779273</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>48.13211297085539</v>
+        <v>66.91507741237115</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>45.85168939517159</v>
+        <v>69.8364645806584</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>50.64732369734452</v>
+        <v>78.05250839315786</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>52.86446923752095</v>
+        <v>86.33864663525708</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>34.55240795851138</v>
+        <v>27.79562233373917</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>47.55285040108183</v>
+        <v>72.28596613923366</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>51.54733834423456</v>
+        <v>78.6392898762617</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>40.07594292744089</v>
+        <v>56.51489379443404</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>37.40164025240794</v>
+        <v>39.97161226752399</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>42.15765247008422</v>
+        <v>48.52934108826906</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>44.42011415166124</v>
+        <v>60.80583104475915</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>26.3414370665264</v>
+        <v>7.038174614868979</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>39.18700564381201</v>
+        <v>48.18790388302963</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>43.18624084667555</v>
+        <v>55.79432063404394</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>25.95124778202376</v>
+        <v>14.62532887592283</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>38.31408190324645</v>
+        <v>33.11187737538555</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>42.52459911517366</v>
+        <v>41.76633228994862</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>23.27462616137291</v>
+        <v>3.915006662630617</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>37.72038784911074</v>
+        <v>35.39500153813913</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>42.33589823367397</v>
+        <v>45.48074350419665</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>27.57998697795312</v>
+        <v>8.306385936801291</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>43.33235381402772</v>
+        <v>54.09005311089874</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>48.13221028344579</v>
+        <v>69.92456724159302</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>45.85178827242004</v>
+        <v>66.13510739462924</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>50.64742147030278</v>
+        <v>73.79274121437547</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>52.86456658493617</v>
+        <v>86.17363524343006</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>34.55250746160989</v>
+        <v>16.57834849279504</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>47.5529486580816</v>
+        <v>68.19573961373726</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>51.54743547414785</v>
+        <v>76.78480492604521</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>40.07581254224937</v>
+        <v>50.22550588084783</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>37.40150855791523</v>
+        <v>22.60483955113682</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>42.15752309893738</v>
+        <v>32.11838384048491</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>44.41998520353201</v>
+        <v>48.21038181602006</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>26.34130346718507</v>
+        <v>2.547904877448786</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>39.18687442903509</v>
+        <v>40.02146795087242</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>43.18611109873858</v>
+        <v>50.35341533817427</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>25.95111565686391</v>
+        <v>10.09819713634766</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>38.31395252264086</v>
+        <v>30.09953054570266</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>42.5244709469375</v>
+        <v>42.53546211087163</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>23.27448458275977</v>
+        <v>3.539212414941744</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>37.72024975377739</v>
+        <v>32.41922021996083</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>42.33576118296902</v>
+        <v>45.2830864566763</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>27.57984689617025</v>
+        <v>3.867587566666373</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>43.33221775449277</v>
+        <v>48.1653069576376</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>48.13207564640669</v>
+        <v>67.39278362931753</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>45.8516523219235</v>
+        <v>52.31409926484855</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>50.64728785756306</v>
+        <v>63.92905907140505</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>52.86443340299991</v>
+        <v>81.30269983712049</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>34.55236963178725</v>
+        <v>10.95664632866351</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>47.55281323450646</v>
+        <v>60.36653118209699</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>51.54730155177256</v>
+        <v>75.15440588623602</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>14.48879623934808</v>
+        <v>12.24353761527641</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>26.03105220033965</v>
+        <v>15.10367045750445</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>29.93611662874</v>
+        <v>20.10029483557298</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>11.70399632440835</v>
+        <v>1.805155897206987</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>25.30811646433869</v>
+        <v>10.45686754207182</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>29.60457866582552</v>
+        <v>12.82099854357412</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>15.68203497226437</v>
+        <v>5.543020924828284</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>30.504742252588</v>
+        <v>21.18884598160906</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>34.9462860427105</v>
+        <v>23.29960896665438</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>32.41708066736796</v>
+        <v>13.43194458386466</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>36.88777299760131</v>
+        <v>21.23301880704645</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>38.97463982162318</v>
+        <v>23.37421581121458</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>21.74376014486054</v>
+        <v>11.92023994195654</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>33.89390727262332</v>
+        <v>6.901065188128086</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>37.76271568175545</v>
+        <v>19.4745239491748</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>18.09398613732924</v>
+        <v>12.3048275617748</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>29.74094236201401</v>
+        <v>24.54653577891787</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>33.78935118442271</v>
+        <v>31.56734130897718</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>14.92538217643192</v>
+        <v>1.991355487825899</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>28.52062287428747</v>
+        <v>6.341818020614056</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>33.01071764152413</v>
+        <v>13.71620300121995</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>19.02149779138035</v>
+        <v>2.037401418360787</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>33.91555821224743</v>
+        <v>16.86293059339027</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>14.48908226509986</v>
+        <v>14.48316172372313</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>26.0313456790104</v>
+        <v>19.96561343638405</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>29.93641122616525</v>
+        <v>21.68644833076974</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>11.70429324225505</v>
+        <v>-0.809778967118632</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>25.30842225360337</v>
+        <v>23.75470445029214</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>29.60488611697726</v>
+        <v>26.02832488073295</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>15.68233508518965</v>
+        <v>3.412327188680251</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>30.50505133207339</v>
+        <v>35.57832834193573</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>34.94659648384115</v>
+        <v>36.56027368499088</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>32.41739317687581</v>
+        <v>37.26071851532805</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>36.88808667262219</v>
+        <v>41.5180157769116</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>38.97495439644231</v>
+        <v>42.71469141753957</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>21.74406460477309</v>
+        <v>17.8771058534673</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>33.89421996951305</v>
+        <v>33.04542806820885</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>37.76302900855546</v>
+        <v>39.40003365717362</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>18.09427259817986</v>
+        <v>15.24066632427332</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>29.74123628081928</v>
+        <v>33.00164664816492</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>33.78964635796399</v>
+        <v>37.07095951613616</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>14.92567943312977</v>
+        <v>3.402906124101548</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>28.52092896799816</v>
+        <v>28.42181131249757</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>33.0110255423175</v>
+        <v>36.89937832789965</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>19.02179832459573</v>
+        <v>5.06868585855284</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>33.91586772217042</v>
+        <v>42.51126330059128</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>14.48917583618985</v>
+        <v>6.073610634121906</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>26.03143807339951</v>
+        <v>13.48294615575168</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>29.93650267232196</v>
+        <v>17.13584642757695</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>11.70439128339184</v>
+        <v>-2.763069728793369</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>25.30851886922655</v>
+        <v>20.54033207707045</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>29.6049818659883</v>
+        <v>24.68982069369684</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>15.6824331557398</v>
+        <v>2.402920728868025</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>30.5051476740637</v>
+        <v>33.36153071676858</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>34.94669175277429</v>
+        <v>38.26211858639215</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>32.4174900650434</v>
+        <v>33.84777119207303</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>36.88818254525596</v>
+        <v>37.27356111760392</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>38.9750498776939</v>
+        <v>43.01586326847124</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>21.7441620071066</v>
+        <v>7.069105333495997</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>33.8943162641522</v>
+        <v>26.01139994557204</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>37.76312420630178</v>
+        <v>33.78980481480514</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>18.09436561428338</v>
+        <v>8.286063864532991</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>29.74132808170336</v>
+        <v>28.02018337206783</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>33.78973722592544</v>
+        <v>34.61376745241131</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>14.92577701254885</v>
+        <v>1.06253800733964</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>28.52102510095348</v>
+        <v>23.766537701223</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>33.01112080874312</v>
+        <v>36.65231694358727</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>19.02189592989441</v>
+        <v>3.96845995372189</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>33.91596357138918</v>
+        <v>39.54427726454799</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>14.48905034597401</v>
+        <v>2.084794494332982</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>26.03131512322197</v>
+        <v>10.9975301033802</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>29.93638080485229</v>
+        <v>16.58201405406908</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>11.70425655712896</v>
+        <v>-2.868437831789834</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>25.30838741252744</v>
+        <v>19.4067863390818</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>29.60485133924903</v>
+        <v>25.18864353076913</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>15.68229993333266</v>
+        <v>-1.222182029188048</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>30.50501823639522</v>
+        <v>30.25371271168316</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>34.94656357432495</v>
+        <v>36.77914048114152</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>32.41736041385485</v>
+        <v>25.11980935404608</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>36.8880550673508</v>
+        <v>28.46819372689163</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>38.97492276941985</v>
+        <v>35.64319391778179</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>21.74403065785838</v>
+        <v>6.054746841884366</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>33.89418707675659</v>
+        <v>24.3203907113618</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>37.76299647404271</v>
+        <v>35.30548484931236</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>18.09424218564617</v>
+        <v>4.983917333655995</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.74120725420406</v>
+        <v>24.03760557512203</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>33.78961749969865</v>
+        <v>33.15879654813091</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>14.92564424962312</v>
+        <v>0.5326821769244248</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>28.52089562509896</v>
+        <v>19.952546660455</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>33.01099229988799</v>
+        <v>34.43774376665451</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>19.02176468238571</v>
+        <v>-0.5153540236968865</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>33.91583615931323</v>
+        <v>31.75494338634914</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>38.52415045283689</v>
+        <v>28.81176038791909</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>35.95444651502208</v>
+        <v>15.99760711480184</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>40.55057889410489</v>
+        <v>31.97345709493524</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>42.73186103794986</v>
+        <v>39.72112640309544</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>25.2482214948964</v>
+        <v>5.36240130011754</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>37.67873073004675</v>
+        <v>16.47711637369977</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>41.53924919545275</v>
+        <v>25.63589732019338</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>24.91127420783208</v>
+        <v>12.18534412268929</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>36.87835432162028</v>
+        <v>21.78571509328694</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>40.93986411103597</v>
+        <v>33.45307998284929</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>22.30364233619536</v>
+        <v>-1.357604034750466</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>36.28544170361934</v>
+        <v>6.923182224937165</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>40.73589371845023</v>
+        <v>15.25788199652132</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>26.47401555066213</v>
+        <v>0.4975866078197555</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>41.71718012125953</v>
+        <v>21.36776297917217</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>46.34798406061268</v>
+        <v>37.18031825939372</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>44.1572330428416</v>
+        <v>24.79377242462243</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>48.79160522478048</v>
+        <v>42.37952116565319</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>50.92973497761817</v>
+        <v>53.54729409081793</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>33.22040670136137</v>
+        <v>4.272786841281231</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>45.80092767276022</v>
+        <v>21.39523148254898</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>49.65641935903477</v>
+        <v>35.71139978063411</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>38.52446147299082</v>
+        <v>54.7781326555247</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>35.95475932924378</v>
+        <v>49.30064823967746</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>40.550892893041</v>
+        <v>59.11699377455119</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>42.73217596951882</v>
+        <v>64.58365215706277</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>25.24852635517225</v>
+        <v>18.74815428917873</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>37.67904390147199</v>
+        <v>55.69635382255382</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>41.53956306577493</v>
+        <v>60.61619548693949</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>24.91156948217007</v>
+        <v>22.95866583880343</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>36.87865723009283</v>
+        <v>38.53251857402293</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>40.94016817676497</v>
+        <v>45.27182408335707</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>22.30394864666778</v>
+        <v>6.21895222895489</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>36.2857570414246</v>
+        <v>37.91505106262625</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>40.73621076996893</v>
+        <v>45.62828384772624</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>26.47432524893404</v>
+        <v>10.35881223472711</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>41.71749899292972</v>
+        <v>56.10451940258508</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>46.34830431886455</v>
+        <v>67.61485162296867</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>44.15755539842732</v>
+        <v>70.8504880730041</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>48.79192877097373</v>
+        <v>79.57102736447385</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>50.93005940481098</v>
+        <v>86.7201494330092</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>33.22072099175446</v>
+        <v>28.20213125771932</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>45.80125032923436</v>
+        <v>73.53595232880662</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>49.65674266070423</v>
+        <v>79.5147065045818</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>38.52455626020814</v>
+        <v>57.05872815046439</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>35.954855677837</v>
+        <v>41.4367966421903</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>40.55098819078942</v>
+        <v>50.5664322656005</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>42.73227085849857</v>
+        <v>61.68010694235136</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>25.24862326168335</v>
+        <v>7.33959323794619</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>37.67913962826851</v>
+        <v>49.12853192938215</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>41.53965772575673</v>
+        <v>56.41195818983797</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>24.91166205602812</v>
+        <v>14.86477323937902</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>36.87874853219255</v>
+        <v>33.9562951016002</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>40.94025849761421</v>
+        <v>42.5161521668679</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>22.30404565928261</v>
+        <v>3.469910658763354</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>36.2858525404199</v>
+        <v>34.98067720235005</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>40.73630537372239</v>
+        <v>45.85560650491729</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>26.47442229205591</v>
+        <v>8.771965397548456</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>41.71759422594782</v>
+        <v>54.98177095172571</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>46.34839843022573</v>
+        <v>70.21970129672729</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>44.15765101940964</v>
+        <v>67.02816646639735</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>48.79202332414376</v>
+        <v>75.21579976903089</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>50.93015354780309</v>
+        <v>86.32951561301962</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>33.22081722106761</v>
+        <v>16.94874372299108</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>45.80134535025283</v>
+        <v>69.22442273802565</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>49.65683659430626</v>
+        <v>77.40689028484636</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>38.52443012514872</v>
+        <v>51.17072504690233</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>35.95472827825796</v>
+        <v>24.6557300918987</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>40.55086303659627</v>
+        <v>34.70573624652087</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>42.73214611340998</v>
+        <v>49.43299922822536</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>25.24849401374146</v>
+        <v>3.066640946611415</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>37.67901269269289</v>
+        <v>41.28318419008221</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>41.53953220585229</v>
+        <v>51.23055295151673</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>24.91153424589276</v>
+        <v>10.89983351733792</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>36.87862338523702</v>
+        <v>31.48708131175121</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>40.94013451801293</v>
+        <v>43.78300451602954</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>22.30390869879346</v>
+        <v>3.442035874839235</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>36.28571895771629</v>
+        <v>32.43759203415976</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>40.73617279404535</v>
+        <v>46.03048421067734</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>26.47428679052374</v>
+        <v>4.771437099206992</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>41.71746262331648</v>
+        <v>49.5663218928733</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>46.34826819833366</v>
+        <v>68.21779432659739</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>44.15751951826313</v>
+        <v>53.94275047184402</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>48.79189408249499</v>
+        <v>65.98655880456846</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>50.9300247230935</v>
+        <v>81.88097666742573</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>33.22068389682418</v>
+        <v>11.77040244725856</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>45.80121435882153</v>
+        <v>61.90617977651192</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>49.65670705170199</v>
+        <v>76.18272986884514</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>14.70262655270184</v>
+        <v>11.89612337754335</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>26.654365955261</v>
+        <v>21.28593988706766</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>30.63295946511082</v>
+        <v>27.68883469474312</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>11.83906977819335</v>
+        <v>1.542789136966917</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>25.92586677411006</v>
+        <v>18.34539925871161</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>30.28545769924946</v>
+        <v>20.44605688938918</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>15.96114556367688</v>
+        <v>5.19747712700223</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>31.28554775200723</v>
+        <v>33.86928731402111</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>35.81632259525892</v>
+        <v>36.13489073686276</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>33.22639216159715</v>
+        <v>24.41807568660471</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>37.81796278510115</v>
+        <v>32.19390667741303</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>39.94309747600748</v>
+        <v>33.39121707350913</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>22.18131354538312</v>
+        <v>10.6559812949356</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>34.72182263587532</v>
+        <v>15.47885219024135</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>38.67616163585861</v>
+        <v>27.5851667373804</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>18.23163643200443</v>
+        <v>10.0096217817632</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>30.28378538918927</v>
+        <v>26.0329432615242</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>34.40743968986999</v>
+        <v>31.28846035553315</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>14.9770193397648</v>
+        <v>-0.8678260507903133</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>29.04964632938053</v>
+        <v>8.883531543195261</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>33.60519157114092</v>
+        <v>13.17802255104817</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>19.21746704140596</v>
+        <v>-1.093667425773901</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>34.60808275310504</v>
+        <v>23.01216500406287</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>14.7029194140995</v>
+        <v>17.64665547596792</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>26.65466649834557</v>
+        <v>30.34255729970616</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>30.63326112531523</v>
+        <v>32.95451734020148</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>11.83937382215699</v>
+        <v>2.44334437393502</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>25.92617997333908</v>
+        <v>36.29800049105938</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>30.28577255980435</v>
+        <v>37.50990632526566</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>15.96145286592109</v>
+        <v>6.585381783049684</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>31.2858642868914</v>
+        <v>52.82732945596337</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>35.81664049259857</v>
+        <v>53.14399257964016</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>33.22671218452757</v>
+        <v>53.30472486896491</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>37.8182840023904</v>
+        <v>57.33110354726654</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>39.94341960521226</v>
+        <v>57.24155256374337</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>22.18162529368908</v>
+        <v>20.36510321867343</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>34.72214286055602</v>
+        <v>46.52604010113157</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>38.67648248490303</v>
+        <v>51.81560684806129</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>18.23192970322807</v>
+        <v>14.65238105235665</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>30.28408634491062</v>
+        <v>36.88110841515316</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>34.40774190156797</v>
+        <v>38.68480474712095</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>14.97732369381667</v>
+        <v>2.296628806809281</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>29.04995980183657</v>
+        <v>33.91951354898811</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>33.60550685254692</v>
+        <v>38.53889846490779</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>19.21777473694356</v>
+        <v>3.68118848730137</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>34.60839968937645</v>
+        <v>51.55812650536546</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>14.70301508396497</v>
+        <v>9.705532607768532</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>26.65476093738469</v>
+        <v>24.36687173772481</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>30.63335458980782</v>
+        <v>28.94204832628753</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>11.839474097247</v>
+        <v>1.420837468990214</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>25.92627876365608</v>
+        <v>33.84485419767887</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>30.28587045941752</v>
+        <v>36.91002232663382</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>15.96155315225749</v>
+        <v>6.35590239516597</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>31.28596277279638</v>
+        <v>51.11912329674604</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>35.81673787429358</v>
+        <v>55.38525809476417</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>33.22681122314781</v>
+        <v>50.72653215211091</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>37.81838199501406</v>
+        <v>53.95386151095846</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>39.9435172001553</v>
+        <v>58.38038105080801</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>22.18172488558957</v>
+        <v>10.02729715767947</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>34.72224129973434</v>
+        <v>40.03626973035225</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>38.67657979599376</v>
+        <v>46.68481468138143</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>18.23202484568334</v>
+        <v>8.478843438837259</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>30.28418021862369</v>
+        <v>32.72271990442917</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>34.40783481691862</v>
+        <v>37.0925151276048</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>14.97742353530579</v>
+        <v>1.100502461418046</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>29.05005813815709</v>
+        <v>30.21555580140549</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>33.60560429903924</v>
+        <v>39.27270389220863</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>19.2178745868433</v>
+        <v>3.592487585912806</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>34.60849771232672</v>
+        <v>49.3173874618216</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>14.70288694332584</v>
+        <v>4.789098221756774</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>26.65463545370317</v>
+        <v>20.37263600208087</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>30.6332302208347</v>
+        <v>27.45514302818435</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>11.83933646268094</v>
+        <v>0.6589489447881647</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>25.92614454039751</v>
+        <v>31.30020878233876</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>30.28573717998374</v>
+        <v>36.81704352192031</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>15.96141709669172</v>
+        <v>1.927033726577804</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>31.2858306598272</v>
+        <v>46.41515501224043</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>35.81660705915286</v>
+        <v>53.08486094745612</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>33.22667887734723</v>
+        <v>40.48191013207327</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>37.81825188272246</v>
+        <v>43.66447400946203</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>39.94338746943833</v>
+        <v>49.69523859628879</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>22.18159074933687</v>
+        <v>8.241387437181174</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>34.72210941628509</v>
+        <v>37.10489023673188</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>38.6764494113907</v>
+        <v>47.38801788726028</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>18.23189874808029</v>
+        <v>4.237521899968385</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>30.28405683786116</v>
+        <v>27.21074951355183</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>34.40771256866461</v>
+        <v>34.6425556225804</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>14.9772878467307</v>
+        <v>-0.2167757091424392</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>29.04992587641239</v>
+        <v>24.81943869365978</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>33.6054730186123</v>
+        <v>36.25757008194194</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>19.21774048751393</v>
+        <v>-1.806173753028077</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>34.60836760469999</v>
+        <v>39.73743237114488</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>39.3080971317363</v>
+        <v>32.30855224399085</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>36.68288797307084</v>
+        <v>20.61626285952883</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>41.40015693712428</v>
+        <v>35.65456650234873</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>43.62019176594529</v>
+        <v>40.91401003547796</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>25.61028174121951</v>
+        <v>2.611261080527981</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>38.42993277567945</v>
+        <v>18.55222923161315</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>42.37651256123294</v>
+        <v>27.58988954035883</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>25.2724531791989</v>
+        <v>7.273214874926055</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>37.65207758661832</v>
+        <v>21.49567253183417</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>41.78951653902924</v>
+        <v>32.19396026534079</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>22.58992974861077</v>
+        <v>-5.473487350880362</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>37.05656997853182</v>
+        <v>7.837247208590583</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>41.57039829420115</v>
+        <v>14.26095732702035</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>26.9092967736115</v>
+        <v>-4.727650880798535</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>42.65577543140932</v>
+        <v>25.15848052930264</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>47.37926844543883</v>
+        <v>39.52153543537665</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>45.13802999466916</v>
+        <v>27.23660611131805</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>49.89586587836247</v>
+        <v>44.0367673298926</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>52.07481632473358</v>
+        <v>54.63508389071654</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>33.83159553992016</v>
+        <v>-1.674745077540194</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>46.80721855432836</v>
+        <v>21.77453237587517</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>50.74724518113345</v>
+        <v>35.86897606676413</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>39.30841558240277</v>
+        <v>60.36212591479051</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>36.68320827120944</v>
+        <v>57.32831654218887</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>41.40047844873595</v>
+        <v>65.92636300899835</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>43.62051422261629</v>
+        <v>68.53844840871295</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>25.6105938636588</v>
+        <v>18.09156375826308</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>38.43025344775333</v>
+        <v>61.07755477158776</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>42.37683392874098</v>
+        <v>65.40278037398866</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>25.27275546063643</v>
+        <v>18.38303549699742</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>37.65238773330708</v>
+        <v>39.2892629384163</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>41.78982784107802</v>
+        <v>44.47620285925859</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>22.59024335715404</v>
+        <v>2.506228663268246</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>37.05689290016664</v>
+        <v>40.48804994303711</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>41.57072292782519</v>
+        <v>45.43800129264829</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>26.90961383761628</v>
+        <v>5.493913562132434</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>42.65610193775392</v>
+        <v>61.42357495590511</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>47.37959633847742</v>
+        <v>70.54667503897394</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>45.13836004642285</v>
+        <v>75.35264908304487</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>49.89619714971761</v>
+        <v>82.94822356242614</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>52.07514848787282</v>
+        <v>89.12345150060688</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>33.8319173027717</v>
+        <v>22.96738978248237</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>46.80754892413837</v>
+        <v>75.96298627359153</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>50.74757619039289</v>
+        <v>81.06385849857824</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>39.30851251298565</v>
+        <v>63.42114895906414</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>36.68330679887926</v>
+        <v>50.41996938912212</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>41.400575894898</v>
+        <v>58.35924019628641</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>43.62061125371947</v>
+        <v>66.60655192592941</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>25.61069298767406</v>
+        <v>7.369471718285922</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>38.43035134712447</v>
+        <v>55.28635087839552</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>42.37693073072638</v>
+        <v>61.97023680285952</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>25.27285012913627</v>
+        <v>10.9527413668502</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>37.65248107551394</v>
+        <v>35.42981251895191</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>41.78992017507951</v>
+        <v>42.44736672063294</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>22.59034259590478</v>
+        <v>0.8213551177956333</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>37.05699056564283</v>
+        <v>38.44053030699709</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>41.57081967381137</v>
+        <v>46.55444393237704</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>26.90971308842955</v>
+        <v>4.842542717465506</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>42.65619930703923</v>
+        <v>60.97614459115576</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>47.37969255378616</v>
+        <v>73.84252714446976</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>45.13845780738806</v>
+        <v>72.48189617911652</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>49.89629381131097</v>
+        <v>79.5932202785886</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>52.0752447317806</v>
+        <v>89.68317362210141</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>33.83201571105578</v>
+        <v>12.32765697903437</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>46.80764607787303</v>
+        <v>72.40800464872439</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>50.74767222605585</v>
+        <v>79.70268931101199</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>39.30838372007307</v>
+        <v>56.51403298901172</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>36.68317669156831</v>
+        <v>31.77062367641781</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>41.40044809340231</v>
+        <v>40.71041493858613</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>43.62048387363349</v>
+        <v>52.74207991001876</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>25.61056093933336</v>
+        <v>2.109303415589579</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>38.43022170297728</v>
+        <v>45.89589797244264</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>42.37680254471138</v>
+        <v>55.62946900689406</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>25.27271959122978</v>
+        <v>6.380834311671549</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>37.6523533176713</v>
+        <v>31.79124531656342</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>41.7897936178538</v>
+        <v>43.10318236501726</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>22.59020265655731</v>
+        <v>0.4151477124134431</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>37.05685414555993</v>
+        <v>34.73867336182698</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>41.57068427088655</v>
+        <v>46.39035173184394</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>26.90957468242033</v>
+        <v>0.3318361916107051</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>42.65606495670819</v>
+        <v>54.23123030559245</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>47.37955961485919</v>
+        <v>71.30966307259956</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>45.13832354717521</v>
+        <v>58.08786310286763</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>49.89616187208796</v>
+        <v>69.1988372381019</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>52.07511322379614</v>
+        <v>84.2765995613114</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>33.8318795361598</v>
+        <v>6.652707975661144</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>46.8075123281258</v>
+        <v>63.99155655347053</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>50.74753996850992</v>
+        <v>77.95380029274079</v>
       </c>
     </row>
   </sheetData>
